--- a/data/georgia_census/adjara/qobuleti/age_dependency.xlsx
+++ b/data/georgia_census/adjara/qobuleti/age_dependency.xlsx
@@ -1007,13 +1007,13 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7AEA7BD4-63D9-416F-B1BA-B8D17B32E993}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{78169762-02B5-47CB-B8A7-1679B83806AC}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7272B748-A110-4EA5-9AE6-2FA70C28C243}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8B31BBC1-3B64-4904-A365-068312F7D143}"/>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B6EB32AD-B853-4620-9794-1F9B3A3C978A}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C5EA2489-1675-4BCA-9FB4-A397B3A1D5AC}"/>
 </file>